--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf7</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf7</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H2">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I2">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J2">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>101.9708463843467</v>
+        <v>4.60916988105511</v>
       </c>
       <c r="R2">
-        <v>917.7376174591201</v>
+        <v>41.48252892949599</v>
       </c>
       <c r="S2">
-        <v>0.04881452207268171</v>
+        <v>0.002922127781828609</v>
       </c>
       <c r="T2">
-        <v>0.04881452207268171</v>
+        <v>0.002922127781828609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H3">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I3">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J3">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>1097.092189895056</v>
+        <v>27.68619088463056</v>
       </c>
       <c r="R3">
-        <v>9873.829709055499</v>
+        <v>249.175717961675</v>
       </c>
       <c r="S3">
-        <v>0.5251896283918643</v>
+        <v>0.01755252890320221</v>
       </c>
       <c r="T3">
-        <v>0.5251896283918642</v>
+        <v>0.01755252890320221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H4">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I4">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J4">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>4.598365134691111</v>
+        <v>0.1460315612904444</v>
       </c>
       <c r="R4">
-        <v>41.38528621222</v>
+        <v>1.314284051614</v>
       </c>
       <c r="S4">
-        <v>0.002201285998152573</v>
+        <v>9.258128758164396E-05</v>
       </c>
       <c r="T4">
-        <v>0.002201285998152573</v>
+        <v>9.258128758164398E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H5">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I5">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J5">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>763.8914591382598</v>
+        <v>4.506729159345444</v>
       </c>
       <c r="R5">
-        <v>6875.023132244339</v>
+        <v>40.56056243410899</v>
       </c>
       <c r="S5">
-        <v>0.3656829163964043</v>
+        <v>0.002857182273933842</v>
       </c>
       <c r="T5">
-        <v>0.3656829163964043</v>
+        <v>0.002857182273933842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H6">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I6">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J6">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>13.28995610744667</v>
+        <v>0.3327847154441111</v>
       </c>
       <c r="R6">
-        <v>119.60960496702</v>
+        <v>2.995062438997</v>
       </c>
       <c r="S6">
-        <v>0.006362042473460469</v>
+        <v>0.0002109793059188694</v>
       </c>
       <c r="T6">
-        <v>0.006362042473460468</v>
+        <v>0.0002109793059188694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H7">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I7">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J7">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>21.35375398552889</v>
+        <v>0.4346366746418889</v>
       </c>
       <c r="R7">
-        <v>192.18378586976</v>
+        <v>3.911730071776999</v>
       </c>
       <c r="S7">
-        <v>0.01022226775810334</v>
+        <v>0.0002755515493566334</v>
       </c>
       <c r="T7">
-        <v>0.01022226775810333</v>
+        <v>0.0002755515493566334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H8">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I8">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J8">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N8">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q8">
-        <v>0.9572010625173333</v>
+        <v>182.6428308421511</v>
       </c>
       <c r="R8">
-        <v>8.614809562656001</v>
+        <v>1643.78547757936</v>
       </c>
       <c r="S8">
-        <v>0.00045822226696178</v>
+        <v>0.115792149981137</v>
       </c>
       <c r="T8">
-        <v>0.0004582222669617799</v>
+        <v>0.115792149981137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H9">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I9">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J9">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q9">
-        <v>10.29841221371111</v>
+        <v>1097.092189895056</v>
       </c>
       <c r="R9">
-        <v>92.6857099234</v>
+        <v>9873.829709055501</v>
       </c>
       <c r="S9">
-        <v>0.004929958788661641</v>
+        <v>0.695535996730427</v>
       </c>
       <c r="T9">
-        <v>0.00492995878866164</v>
+        <v>0.695535996730427</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H10">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I10">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J10">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N10">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q10">
-        <v>0.04316488632622222</v>
+        <v>5.786642374804445</v>
       </c>
       <c r="R10">
-        <v>0.388483976936</v>
+        <v>52.07978137324</v>
       </c>
       <c r="S10">
-        <v>2.066348736965691E-05</v>
+        <v>0.00366862339277717</v>
       </c>
       <c r="T10">
-        <v>2.06634873696569E-05</v>
+        <v>0.00366862339277717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H11">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I11">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J11">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N11">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q11">
-        <v>7.170654576887999</v>
+        <v>178.5835178011045</v>
       </c>
       <c r="R11">
-        <v>64.53589119199199</v>
+        <v>1607.25166020994</v>
       </c>
       <c r="S11">
-        <v>0.003432668145165147</v>
+        <v>0.1132186211856078</v>
       </c>
       <c r="T11">
-        <v>0.003432668145165146</v>
+        <v>0.1132186211856078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H12">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I12">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J12">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N12">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O12">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P12">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q12">
-        <v>0.1247529127973333</v>
+        <v>13.18691739689111</v>
       </c>
       <c r="R12">
-        <v>1.122776215176</v>
+        <v>118.68225657202</v>
       </c>
       <c r="S12">
-        <v>5.972053808814506E-05</v>
+        <v>0.008360259803076194</v>
       </c>
       <c r="T12">
-        <v>5.972053808814505E-05</v>
+        <v>0.008360259803076194</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H13">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I13">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J13">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N13">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q13">
-        <v>0.2004478410097778</v>
+        <v>17.22290015186889</v>
       </c>
       <c r="R13">
-        <v>1.804030569088</v>
+        <v>155.00610136682</v>
       </c>
       <c r="S13">
-        <v>9.595650037573123E-05</v>
+        <v>0.01091899763215399</v>
       </c>
       <c r="T13">
-        <v>9.595650037573121E-05</v>
+        <v>0.01091899763215399</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H14">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I14">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J14">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N14">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q14">
-        <v>2.990944938705334</v>
+        <v>1.714469556174222</v>
       </c>
       <c r="R14">
-        <v>26.91850444834801</v>
+        <v>15.430226005568</v>
       </c>
       <c r="S14">
-        <v>0.001431796958694456</v>
+        <v>0.001086941737988016</v>
       </c>
       <c r="T14">
-        <v>0.001431796958694456</v>
+        <v>0.001086941737988016</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H15">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I15">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J15">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>188.990975</v>
       </c>
       <c r="O15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q15">
-        <v>32.17922032628611</v>
+        <v>10.29841221371111</v>
       </c>
       <c r="R15">
-        <v>289.612982936575</v>
+        <v>92.6857099234</v>
       </c>
       <c r="S15">
-        <v>0.01540453292874025</v>
+        <v>0.006529001363585992</v>
       </c>
       <c r="T15">
-        <v>0.01540453292874025</v>
+        <v>0.006529001363585992</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H16">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I16">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J16">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N16">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q16">
-        <v>0.1348763633292222</v>
+        <v>0.05431925325688889</v>
       </c>
       <c r="R16">
-        <v>1.213887269963</v>
+        <v>0.488873279312</v>
       </c>
       <c r="S16">
-        <v>6.456674087024194E-05</v>
+        <v>3.44373939616658E-05</v>
       </c>
       <c r="T16">
-        <v>6.456674087024192E-05</v>
+        <v>3.44373939616658E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H17">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I17">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J17">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N17">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q17">
-        <v>22.405985381529</v>
+        <v>1.676364755696889</v>
       </c>
       <c r="R17">
-        <v>201.653868433761</v>
+        <v>15.087282801272</v>
       </c>
       <c r="S17">
-        <v>0.01072598205024538</v>
+        <v>0.001062784004823631</v>
       </c>
       <c r="T17">
-        <v>0.01072598205024538</v>
+        <v>0.001062784004823631</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H18">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I18">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J18">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N18">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O18">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P18">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q18">
-        <v>0.3898126608203333</v>
+        <v>0.1237856876862222</v>
       </c>
       <c r="R18">
-        <v>3.508313947383</v>
+        <v>1.114071189176</v>
       </c>
       <c r="S18">
-        <v>0.0001866074413475299</v>
+        <v>7.847781841746019E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001866074413475299</v>
+        <v>7.847781841746017E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H19">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I19">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J19">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N19">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q19">
-        <v>0.6263349248337778</v>
+        <v>0.1616714866017778</v>
       </c>
       <c r="R19">
-        <v>5.637014323504</v>
+        <v>1.455043379416</v>
       </c>
       <c r="S19">
-        <v>0.0002998331493488837</v>
+        <v>0.0001024967086742399</v>
       </c>
       <c r="T19">
-        <v>0.0002998331493488836</v>
+        <v>0.0001024967086742399</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1650,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H20">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I20">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J20">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N20">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O20">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P20">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q20">
-        <v>0.4699014359133334</v>
+        <v>3.797500565088889</v>
       </c>
       <c r="R20">
-        <v>4.229112923220001</v>
+        <v>34.1775050858</v>
       </c>
       <c r="S20">
-        <v>0.0002249467845831023</v>
+        <v>0.002407544566401588</v>
       </c>
       <c r="T20">
-        <v>0.0002249467845831023</v>
+        <v>0.002407544566401588</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,25 +1712,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H21">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I21">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J21">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>188.990975</v>
       </c>
       <c r="O21">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P21">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q21">
-        <v>5.055613576236112</v>
+        <v>22.81068570756945</v>
       </c>
       <c r="R21">
-        <v>45.500522186125</v>
+        <v>205.296171368125</v>
       </c>
       <c r="S21">
-        <v>0.002420175660579893</v>
+        <v>0.01446154950864838</v>
       </c>
       <c r="T21">
-        <v>0.002420175660579893</v>
+        <v>0.01446154950864838</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H22">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I22">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J22">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N22">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O22">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P22">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q22">
-        <v>0.02119015832722223</v>
+        <v>0.1203155776055556</v>
       </c>
       <c r="R22">
-        <v>0.190711424945</v>
+        <v>1.08284019845</v>
       </c>
       <c r="S22">
-        <v>1.014395278714286E-05</v>
+        <v>7.627783331506722E-05</v>
       </c>
       <c r="T22">
-        <v>1.014395278714286E-05</v>
+        <v>7.627783331506722E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H23">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I23">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J23">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N23">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O23">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P23">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q23">
-        <v>3.520159989435</v>
+        <v>3.713099532230556</v>
       </c>
       <c r="R23">
-        <v>31.681439904915</v>
+        <v>33.41789579007501</v>
       </c>
       <c r="S23">
-        <v>0.001685137797679631</v>
+        <v>0.002354035884948105</v>
       </c>
       <c r="T23">
-        <v>0.00168513779767963</v>
+        <v>0.002354035884948105</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H24">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I24">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J24">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N24">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O24">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P24">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q24">
-        <v>0.06124269513833334</v>
+        <v>0.2741817241638889</v>
       </c>
       <c r="R24">
-        <v>0.551184256245</v>
+        <v>2.467635517475</v>
       </c>
       <c r="S24">
-        <v>2.931752554404223E-05</v>
+        <v>0.0001738261019065677</v>
       </c>
       <c r="T24">
-        <v>2.931752554404223E-05</v>
+        <v>0.0001738261019065677</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H25">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I25">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J25">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N25">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O25">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P25">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q25">
-        <v>0.0984022396177778</v>
+        <v>0.3580976748861111</v>
       </c>
       <c r="R25">
-        <v>0.88562015656</v>
+        <v>3.222879073975</v>
       </c>
       <c r="S25">
-        <v>4.710619229066925E-05</v>
+        <v>0.0002270272503285115</v>
       </c>
       <c r="T25">
-        <v>4.710619229066924E-05</v>
+        <v>0.0002270272503285115</v>
       </c>
     </row>
   </sheetData>
